--- a/estimador_precios.xlsx
+++ b/estimador_precios.xlsx
@@ -1,19 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariano/Documents/job/analisis_precios_dragon/entregables/regresion/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B8E59-AB75-BE42-BFED-9C739EB1620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="740" windowWidth="29320" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="mes">Sheet1!$B$4</definedName>
@@ -21,85 +14,41 @@
     <definedName name="region">Sheet1!$B$3</definedName>
     <definedName name="tipo_cliente">Sheet1!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>h063</t>
-  </si>
-  <si>
-    <t>Región</t>
-  </si>
-  <si>
-    <t>bajio</t>
-  </si>
-  <si>
-    <t>Mes de venta</t>
-  </si>
-  <si>
-    <t>enero</t>
-  </si>
-  <si>
-    <t>Tipo de Cliente</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Precio Estimado</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20.05"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,13 +60,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -141,117 +90,98 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="3" builtinId="32"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>520700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="2005" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                  <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-                </a:rPr>
-                <a:t>Calcula precio</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,98 +476,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col width="14.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>l094</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Región</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>bajio</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Mes de venta</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Tipo de Cliente</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2668.45</v>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Precio Estimado</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>287.67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId3" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!RunPythonScript">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>647700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>520700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>